--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H2">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I2">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J2">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>676.956020602163</v>
+        <v>950.6261220484</v>
       </c>
       <c r="R2">
-        <v>6092.604185419467</v>
+        <v>8555.6350984356</v>
       </c>
       <c r="S2">
-        <v>0.007100652676159251</v>
+        <v>0.009662596951826965</v>
       </c>
       <c r="T2">
-        <v>0.007100652676159254</v>
+        <v>0.009662596951826965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H3">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I3">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J3">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>2229.917087631154</v>
+        <v>5103.49821414748</v>
       </c>
       <c r="R3">
-        <v>20069.25378868038</v>
+        <v>45931.48392732732</v>
       </c>
       <c r="S3">
-        <v>0.02338980118947302</v>
+        <v>0.05187428069135795</v>
       </c>
       <c r="T3">
-        <v>0.02338980118947303</v>
+        <v>0.05187428069135795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H4">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I4">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J4">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>1120.950012745928</v>
+        <v>2707.547744183471</v>
       </c>
       <c r="R4">
-        <v>10088.55011471336</v>
+        <v>24367.92969765123</v>
       </c>
       <c r="S4">
-        <v>0.01175774565202189</v>
+        <v>0.02752074866562648</v>
       </c>
       <c r="T4">
-        <v>0.0117577456520219</v>
+        <v>0.02752074866562648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H5">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I5">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J5">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>2661.182611331213</v>
+        <v>5524.142170496049</v>
       </c>
       <c r="R5">
-        <v>23950.64350198091</v>
+        <v>49717.27953446444</v>
       </c>
       <c r="S5">
-        <v>0.02791338411332694</v>
+        <v>0.05614989748343593</v>
       </c>
       <c r="T5">
-        <v>0.02791338411332695</v>
+        <v>0.05614989748343593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I6">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J6">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>8290.143764898481</v>
+        <v>5086.652850827631</v>
       </c>
       <c r="R6">
-        <v>74611.29388408634</v>
+        <v>45779.87565744867</v>
       </c>
       <c r="S6">
-        <v>0.08695606467553034</v>
+        <v>0.05170305674485408</v>
       </c>
       <c r="T6">
-        <v>0.08695606467553035</v>
+        <v>0.05170305674485409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I7">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J7">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>27308.02692887214</v>
@@ -883,10 +883,10 @@
         <v>245772.2423598492</v>
       </c>
       <c r="S7">
-        <v>0.2864363541971951</v>
+        <v>0.2775712255778873</v>
       </c>
       <c r="T7">
-        <v>0.2864363541971952</v>
+        <v>0.2775712255778873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I8">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J8">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>13727.38623502071</v>
+        <v>14487.66779312379</v>
       </c>
       <c r="R8">
-        <v>123546.4761151864</v>
+        <v>130389.0101381141</v>
       </c>
       <c r="S8">
-        <v>0.1439877906982309</v>
+        <v>0.1472592551478322</v>
       </c>
       <c r="T8">
-        <v>0.1439877906982309</v>
+        <v>0.1472592551478323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1619.290924</v>
       </c>
       <c r="I9">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J9">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>32589.39393575315</v>
+        <v>29558.82745929868</v>
       </c>
       <c r="R9">
-        <v>293304.5454217783</v>
+        <v>266029.4471336881</v>
       </c>
       <c r="S9">
-        <v>0.3418330884456488</v>
+        <v>0.3004493874966933</v>
       </c>
       <c r="T9">
-        <v>0.3418330884456489</v>
+        <v>0.3004493874966933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H10">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I10">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J10">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>679.0834196994249</v>
+        <v>506.9852277038198</v>
       </c>
       <c r="R10">
-        <v>6111.750777294825</v>
+        <v>4562.867049334377</v>
       </c>
       <c r="S10">
-        <v>0.007122967156913546</v>
+        <v>0.005153228805954074</v>
       </c>
       <c r="T10">
-        <v>0.007122967156913551</v>
+        <v>0.005153228805954074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H11">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I11">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J11">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>2236.924815540828</v>
+        <v>2721.78319549046</v>
       </c>
       <c r="R11">
-        <v>20132.32333986745</v>
+        <v>24496.04875941413</v>
       </c>
       <c r="S11">
-        <v>0.02346330587873091</v>
+        <v>0.02766544427751478</v>
       </c>
       <c r="T11">
-        <v>0.02346330587873092</v>
+        <v>0.02766544427751478</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H12">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I12">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J12">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>1124.47270546542</v>
+        <v>1443.981685087685</v>
       </c>
       <c r="R12">
-        <v>10120.25434918878</v>
+        <v>12995.83516578917</v>
       </c>
       <c r="S12">
-        <v>0.01179469549325928</v>
+        <v>0.01467728763728613</v>
       </c>
       <c r="T12">
-        <v>0.01179469549325929</v>
+        <v>0.01467728763728613</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H13">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I13">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J13">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>2669.545632432582</v>
+        <v>2946.119837462893</v>
       </c>
       <c r="R13">
-        <v>24025.91069189324</v>
+        <v>26515.07853716603</v>
       </c>
       <c r="S13">
-        <v>0.02800110459494906</v>
+        <v>0.02994570410062488</v>
       </c>
       <c r="T13">
-        <v>0.02800110459494907</v>
+        <v>0.02994570410062488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H14">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J14">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>2.345028749895111</v>
+        <v>2.408431951841222</v>
       </c>
       <c r="R14">
-        <v>21.105258749056</v>
+        <v>21.675887566571</v>
       </c>
       <c r="S14">
-        <v>2.459721778351505E-05</v>
+        <v>2.448039949333394E-05</v>
       </c>
       <c r="T14">
-        <v>2.459721778351506E-05</v>
+        <v>2.448039949333395E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H15">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J15">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>7.724607686812444</v>
+        <v>12.92982370254244</v>
       </c>
       <c r="R15">
-        <v>69.521469181312</v>
+        <v>116.368413322882</v>
       </c>
       <c r="S15">
-        <v>8.102410581245055E-05</v>
+        <v>0.0001314246181523357</v>
       </c>
       <c r="T15">
-        <v>8.102410581245057E-05</v>
+        <v>0.0001314246181523357</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H16">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J16">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>3.883058761699555</v>
+        <v>6.859631086273777</v>
       </c>
       <c r="R16">
-        <v>34.947528855296</v>
+        <v>61.73667977646399</v>
       </c>
       <c r="S16">
-        <v>4.072975311368029E-05</v>
+        <v>6.972441519076184E-05</v>
       </c>
       <c r="T16">
-        <v>4.072975311368031E-05</v>
+        <v>6.972441519076187E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H17">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J17">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>9.218545285617779</v>
+        <v>13.99553431297233</v>
       </c>
       <c r="R17">
-        <v>82.96690757056001</v>
+        <v>125.959808816751</v>
       </c>
       <c r="S17">
-        <v>9.66941518510929E-05</v>
+        <v>0.0001422569862695514</v>
       </c>
       <c r="T17">
-        <v>9.669415185109293E-05</v>
+        <v>0.0001422569862695514</v>
       </c>
     </row>
   </sheetData>
